--- a/torcms_metadata/script/meta_元数据模板20220921.xlsx
+++ b/torcms_metadata/script/meta_元数据模板20220921.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="meta" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="dict" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -1654,8 +1654,8 @@
   </sheetData>
   <sheetProtection sheet="true" password="ec09" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1674,7 +1674,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
@@ -1740,10 +1740,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>